--- a/final_randomized_trials - Copy.xlsx
+++ b/final_randomized_trials - Copy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://penno365-my.sharepoint.com/personal/tuna28ng_upenn_edu/Documents/Documents/GitHub/AO_human_v_robot_main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_0D91D6A78710DD575FD93411595ED87656CC8974" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{873BE2B1-231E-4457-9D42-97B6EEE8710C}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_79FD56AC87B0511977793F11595ED87656CC5831" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3B9622C-5B5C-468B-85F3-7E98886D876E}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-3645" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="1335" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="87">
   <si>
     <t>blockNumber</t>
   </si>
@@ -46,9 +46,96 @@
     <t>catchtrialObj</t>
   </si>
   <si>
+    <t>catch</t>
+  </si>
+  <si>
+    <t>./stimuli/human_right_0_m.mp4</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>control</t>
+  </si>
+  <si>
+    <t>control_0</t>
+  </si>
+  <si>
+    <t>Landscape 1</t>
+  </si>
+  <si>
+    <t>./stimuli/control_0.mp4</t>
+  </si>
+  <si>
+    <t>human_right</t>
+  </si>
+  <si>
+    <t>human_right_1</t>
+  </si>
+  <si>
+    <t>forward-backward swing</t>
+  </si>
+  <si>
+    <t>./stimuli/human_right_1_m.mp4</t>
+  </si>
+  <si>
     <t>robot_right</t>
   </si>
   <si>
+    <t>robot_right_4</t>
+  </si>
+  <si>
+    <t>waving</t>
+  </si>
+  <si>
+    <t>./stimuli/robot_right_4.mp4</t>
+  </si>
+  <si>
+    <t>human_left</t>
+  </si>
+  <si>
+    <t>human_left_2</t>
+  </si>
+  <si>
+    <t>medial-lateral swing</t>
+  </si>
+  <si>
+    <t>./stimuli/human_left_2_m.mp4</t>
+  </si>
+  <si>
+    <t>human_left_0</t>
+  </si>
+  <si>
+    <t>air punching</t>
+  </si>
+  <si>
+    <t>./stimuli/human_left_0_f.mp4</t>
+  </si>
+  <si>
+    <t>control_1</t>
+  </si>
+  <si>
+    <t>Landscape 2</t>
+  </si>
+  <si>
+    <t>./stimuli/control_1.mp4</t>
+  </si>
+  <si>
+    <t>robot_right_2</t>
+  </si>
+  <si>
+    <t>./stimuli/robot_right_2.mp4</t>
+  </si>
+  <si>
+    <t>./stimuli/human_left_2_f.mp4</t>
+  </si>
+  <si>
+    <t>human_right_4</t>
+  </si>
+  <si>
+    <t>./stimuli/human_right_4_f.mp4</t>
+  </si>
+  <si>
     <t>robot_right_3</t>
   </si>
   <si>
@@ -58,187 +145,127 @@
     <t>./stimuli/robot_right_3.mp4</t>
   </si>
   <si>
-    <t>none</t>
-  </si>
-  <si>
     <t>robot_left</t>
   </si>
   <si>
+    <t>robot_left_3</t>
+  </si>
+  <si>
+    <t>./stimuli/robot_left_3.mp4</t>
+  </si>
+  <si>
+    <t>human_left_3</t>
+  </si>
+  <si>
+    <t>./stimuli/human_left_3_f.mp4</t>
+  </si>
+  <si>
+    <t>human_left_4</t>
+  </si>
+  <si>
+    <t>./stimuli/human_left_4_f.mp4</t>
+  </si>
+  <si>
+    <t>./stimuli/obj_0.mp4</t>
+  </si>
+  <si>
+    <t>obj_0</t>
+  </si>
+  <si>
+    <t>robot_left_1</t>
+  </si>
+  <si>
+    <t>./stimuli/robot_left_1.mp4</t>
+  </si>
+  <si>
+    <t>robot_right_1</t>
+  </si>
+  <si>
+    <t>./stimuli/robot_right_1.mp4</t>
+  </si>
+  <si>
+    <t>robot_left_2</t>
+  </si>
+  <si>
+    <t>./stimuli/robot_left_2.mp4</t>
+  </si>
+  <si>
     <t>robot_left_4</t>
   </si>
   <si>
-    <t>waving</t>
-  </si>
-  <si>
     <t>./stimuli/robot_left_4.mp4</t>
   </si>
   <si>
-    <t>human_left</t>
-  </si>
-  <si>
-    <t>human_left_3</t>
-  </si>
-  <si>
-    <t>./stimuli/human_left_3.mp4</t>
-  </si>
-  <si>
-    <t>catch</t>
-  </si>
-  <si>
-    <t>./stimuli/obj_4.mp4</t>
-  </si>
-  <si>
-    <t>obj_4</t>
-  </si>
-  <si>
-    <t>human_right</t>
+    <t>./stimuli/human_left_0_m.mp4</t>
+  </si>
+  <si>
+    <t>./stimuli/human_left_3_m.mp4</t>
+  </si>
+  <si>
+    <t>./stimuli/human_left_4_m.mp4</t>
+  </si>
+  <si>
+    <t>./stimuli/obj_3.mp4</t>
+  </si>
+  <si>
+    <t>obj_3</t>
+  </si>
+  <si>
+    <t>./stimuli/human_right_4_m.mp4</t>
+  </si>
+  <si>
+    <t>robot_right_0</t>
+  </si>
+  <si>
+    <t>./stimuli/robot_right_0.mp4</t>
+  </si>
+  <si>
+    <t>human_right_2</t>
+  </si>
+  <si>
+    <t>./stimuli/human_right_2_f.mp4</t>
+  </si>
+  <si>
+    <t>human_left_1</t>
+  </si>
+  <si>
+    <t>./stimuli/human_left_1_m.mp4</t>
+  </si>
+  <si>
+    <t>./stimuli/obj_1.mp4</t>
+  </si>
+  <si>
+    <t>obj_1</t>
+  </si>
+  <si>
+    <t>./stimuli/human_right_2_m.mp4</t>
+  </si>
+  <si>
+    <t>human_right_3</t>
+  </si>
+  <si>
+    <t>./stimuli/human_right_3_f.mp4</t>
+  </si>
+  <si>
+    <t>robot_left_0</t>
+  </si>
+  <si>
+    <t>./stimuli/robot_left_0.mp4</t>
+  </si>
+  <si>
+    <t>control_2</t>
+  </si>
+  <si>
+    <t>Landscape 3</t>
+  </si>
+  <si>
+    <t>./stimuli/control_2.mp4</t>
   </si>
   <si>
     <t>human_right_0</t>
   </si>
   <si>
-    <t>air punching</t>
-  </si>
-  <si>
-    <t>./stimuli/human_right_0.mp4</t>
-  </si>
-  <si>
-    <t>robot_right_2</t>
-  </si>
-  <si>
-    <t>medial-lateral swing</t>
-  </si>
-  <si>
-    <t>./stimuli/robot_right_2.mp4</t>
-  </si>
-  <si>
-    <t>robot_right_1</t>
-  </si>
-  <si>
-    <t>forward-backward swing</t>
-  </si>
-  <si>
-    <t>./stimuli/robot_right_1.mp4</t>
-  </si>
-  <si>
-    <t>human_right_4</t>
-  </si>
-  <si>
-    <t>./stimuli/human_right_4.mp4</t>
-  </si>
-  <si>
-    <t>control</t>
-  </si>
-  <si>
-    <t>control_0</t>
-  </si>
-  <si>
-    <t>Landscape 1</t>
-  </si>
-  <si>
-    <t>./stimuli/control_0.mp4</t>
-  </si>
-  <si>
-    <t>control_2</t>
-  </si>
-  <si>
-    <t>Landscape 3</t>
-  </si>
-  <si>
-    <t>./stimuli/control_2.mp4</t>
-  </si>
-  <si>
-    <t>human_left_1</t>
-  </si>
-  <si>
-    <t>./stimuli/human_left_1.mp4</t>
-  </si>
-  <si>
-    <t>./stimuli/obj_0.mp4</t>
-  </si>
-  <si>
-    <t>obj_0</t>
-  </si>
-  <si>
-    <t>robot_left_3</t>
-  </si>
-  <si>
-    <t>./stimuli/robot_left_3.mp4</t>
-  </si>
-  <si>
-    <t>human_right_1</t>
-  </si>
-  <si>
-    <t>./stimuli/human_right_1.mp4</t>
-  </si>
-  <si>
-    <t>./stimuli/human_right_2.mp4</t>
-  </si>
-  <si>
-    <t>robot_left_1</t>
-  </si>
-  <si>
-    <t>./stimuli/robot_left_1.mp4</t>
-  </si>
-  <si>
-    <t>robot_left_0</t>
-  </si>
-  <si>
-    <t>./stimuli/robot_left_0.mp4</t>
-  </si>
-  <si>
-    <t>human_right_2</t>
-  </si>
-  <si>
-    <t>robot_right_0</t>
-  </si>
-  <si>
-    <t>./stimuli/robot_right_0.mp4</t>
-  </si>
-  <si>
-    <t>human_left_2</t>
-  </si>
-  <si>
-    <t>./stimuli/human_left_2.mp4</t>
-  </si>
-  <si>
-    <t>human_left_4</t>
-  </si>
-  <si>
-    <t>./stimuli/human_left_4.mp4</t>
-  </si>
-  <si>
-    <t>robot_right_4</t>
-  </si>
-  <si>
-    <t>./stimuli/robot_right_4.mp4</t>
-  </si>
-  <si>
-    <t>control_1</t>
-  </si>
-  <si>
-    <t>Landscape 2</t>
-  </si>
-  <si>
-    <t>./stimuli/control_1.mp4</t>
-  </si>
-  <si>
-    <t>human_left_0</t>
-  </si>
-  <si>
-    <t>./stimuli/human_left_0.mp4</t>
-  </si>
-  <si>
-    <t>robot_left_2</t>
-  </si>
-  <si>
-    <t>./stimuli/robot_left_2.mp4</t>
-  </si>
-  <si>
-    <t>human_right_3</t>
-  </si>
-  <si>
-    <t>./stimuli/human_right_3.mp4</t>
+    <t>./stimuli/human_right_0_f.mp4</t>
   </si>
   <si>
     <t>./stimuli/obj_2.mp4</t>
@@ -247,16 +274,13 @@
     <t>obj_2</t>
   </si>
   <si>
-    <t>./stimuli/obj_1.mp4</t>
-  </si>
-  <si>
-    <t>obj_1</t>
-  </si>
-  <si>
-    <t>./stimuli/obj_3.mp4</t>
-  </si>
-  <si>
-    <t>obj_3</t>
+    <t>./stimuli/human_right_3_m.mp4</t>
+  </si>
+  <si>
+    <t>./stimuli/human_right_1_f.mp4</t>
+  </si>
+  <si>
+    <t>./stimuli/human_left_1_f.mp4</t>
   </si>
 </sst>
 </file>
@@ -621,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H216"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D172" sqref="A1:H216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,7 +656,7 @@
     <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -670,23 +694,14 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
       <c r="G2">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -694,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
       <c r="G3">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -720,25 +735,25 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" t="s">
         <v>18</v>
       </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
       <c r="G4">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -746,16 +761,25 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
         <v>20</v>
       </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -769,7 +793,7 @@
         <v>24</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E6" t="s">
         <v>25</v>
@@ -778,10 +802,10 @@
         <v>26</v>
       </c>
       <c r="G6">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -789,13 +813,13 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
         <v>28</v>
@@ -804,10 +828,10 @@
         <v>29</v>
       </c>
       <c r="G7">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -815,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
         <v>30</v>
@@ -830,10 +854,10 @@
         <v>32</v>
       </c>
       <c r="G8">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -841,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
         <v>33</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F9" t="s">
         <v>34</v>
       </c>
       <c r="G9">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -867,25 +891,25 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G10">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -893,25 +917,25 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="G11">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -919,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G12">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -945,25 +969,25 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G13">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -971,25 +995,25 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D14">
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="F14" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="G14">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="H14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -997,25 +1021,25 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
         <v>42</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F15" t="s">
         <v>43</v>
       </c>
       <c r="G15">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="H15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1023,25 +1047,25 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G16">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="H16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1049,16 +1073,25 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17" t="s">
+        <v>21</v>
       </c>
       <c r="F17" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G17">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1066,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F18" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="G18">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="H18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1092,25 +1125,16 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
         <v>48</v>
       </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="G19">
+        <v>100</v>
+      </c>
+      <c r="H19" t="s">
         <v>49</v>
-      </c>
-      <c r="G19">
-        <v>21</v>
-      </c>
-      <c r="H19" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1118,25 +1142,25 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
         <v>17</v>
       </c>
-      <c r="C20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20">
-        <v>3</v>
-      </c>
-      <c r="E20" t="s">
-        <v>10</v>
-      </c>
       <c r="F20" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="G20">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="H20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1144,25 +1168,25 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F21" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="G21">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="H21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1170,42 +1194,51 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>41</v>
+      </c>
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>39</v>
       </c>
       <c r="F22" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G22">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D23">
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="G23">
         <v>43</v>
       </c>
       <c r="H23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1213,25 +1246,25 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F24" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G24">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1239,25 +1272,25 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="D25">
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="F25" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="G25">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="H25" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1265,25 +1298,25 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E26" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F26" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G26">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H26" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1291,16 +1324,25 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>28</v>
       </c>
       <c r="F27" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="G27">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H27" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1308,25 +1350,25 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E28" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F28" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G28">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H28" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1334,25 +1376,25 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G29">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="H29" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1360,25 +1402,16 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="F30" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G30">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="H30" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1389,22 +1422,22 @@
         <v>23</v>
       </c>
       <c r="C31" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E31" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F31" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G31">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1412,25 +1445,25 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" t="s">
+        <v>59</v>
+      </c>
+      <c r="G32">
         <v>13</v>
       </c>
-      <c r="C32" t="s">
-        <v>51</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32" t="s">
-        <v>31</v>
-      </c>
-      <c r="F32" t="s">
-        <v>52</v>
-      </c>
-      <c r="G32">
-        <v>31</v>
-      </c>
       <c r="H32" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1438,25 +1471,16 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33">
-        <v>2</v>
-      </c>
-      <c r="E33" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="F33" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G33">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="H33" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1464,16 +1488,25 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>20</v>
+        <v>41</v>
+      </c>
+      <c r="C34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34" t="s">
+        <v>39</v>
       </c>
       <c r="F34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G34">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H34" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1481,25 +1514,25 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G35">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="H35" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -1507,25 +1540,25 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C36" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E36" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F36" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G36">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="H36" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1533,25 +1566,25 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="D37">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F37" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="G37">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="H37" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -1559,25 +1592,25 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C38" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="D38">
         <v>4</v>
       </c>
       <c r="E38" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F38" t="s">
         <v>63</v>
       </c>
       <c r="G38">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="H38" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -1585,25 +1618,25 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E39" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F39" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G39">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H39" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -1611,25 +1644,25 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C40" t="s">
         <v>64</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" t="s">
+        <v>28</v>
+      </c>
+      <c r="F40" t="s">
         <v>65</v>
       </c>
-      <c r="F40" t="s">
-        <v>66</v>
-      </c>
       <c r="G40">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H40" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -1637,25 +1670,25 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F41" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="G41">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="H41" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -1663,25 +1696,25 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C42" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="D42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E42" t="s">
         <v>28</v>
       </c>
       <c r="F42" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="G42">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="H42" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -1689,51 +1722,51 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="F43" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="G43">
         <v>51</v>
       </c>
       <c r="H43" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C44" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="D44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F44" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="G44">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="H44" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -1741,25 +1774,25 @@
         <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C45" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E45" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F45" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G45">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="H45" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -1767,16 +1800,25 @@
         <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="C46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>17</v>
       </c>
       <c r="F46" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="G46">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="H46" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -1784,25 +1826,25 @@
         <v>2</v>
       </c>
       <c r="B47" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47" t="s">
+        <v>50</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
         <v>17</v>
       </c>
-      <c r="C47" t="s">
-        <v>67</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47" t="s">
-        <v>25</v>
-      </c>
       <c r="F47" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="G47">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="H47" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -1810,25 +1852,25 @@
         <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C48" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F48" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G48">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="H48" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -1836,25 +1878,16 @@
         <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>23</v>
-      </c>
-      <c r="C49" t="s">
-        <v>24</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="F49" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="G49">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H49" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -1862,25 +1895,25 @@
         <v>2</v>
       </c>
       <c r="B50" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C50" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E50" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F50" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="G50">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="H50" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -1888,25 +1921,25 @@
         <v>2</v>
       </c>
       <c r="B51" t="s">
+        <v>41</v>
+      </c>
+      <c r="C51" t="s">
+        <v>50</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
         <v>17</v>
       </c>
-      <c r="C51" t="s">
-        <v>18</v>
-      </c>
-      <c r="D51">
-        <v>3</v>
-      </c>
-      <c r="E51" t="s">
-        <v>10</v>
-      </c>
       <c r="F51" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="G51">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="H51" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -1914,10 +1947,10 @@
         <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -1926,13 +1959,13 @@
         <v>31</v>
       </c>
       <c r="F52" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="G52">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="H52" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -1940,25 +1973,25 @@
         <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C53" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E53" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F53" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="G53">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="H53" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -1966,25 +1999,25 @@
         <v>2</v>
       </c>
       <c r="B54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" t="s">
+        <v>73</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+      <c r="E54" t="s">
+        <v>39</v>
+      </c>
+      <c r="F54" t="s">
+        <v>74</v>
+      </c>
+      <c r="G54">
         <v>23</v>
       </c>
-      <c r="C54" t="s">
-        <v>55</v>
-      </c>
-      <c r="D54">
-        <v>2</v>
-      </c>
-      <c r="E54" t="s">
-        <v>28</v>
-      </c>
-      <c r="F54" t="s">
-        <v>50</v>
-      </c>
-      <c r="G54">
-        <v>22</v>
-      </c>
       <c r="H54" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -1992,25 +2025,25 @@
         <v>2</v>
       </c>
       <c r="B55" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C55" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E55" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F55" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="G55">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H55" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -2018,25 +2051,25 @@
         <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C56" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="D56">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E56" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F56" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="G56">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H56" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -2044,25 +2077,25 @@
         <v>2</v>
       </c>
       <c r="B57" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C57" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="D57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E57" t="s">
         <v>28</v>
       </c>
       <c r="F57" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="G57">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="H57" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -2070,25 +2103,16 @@
         <v>2</v>
       </c>
       <c r="B58" t="s">
-        <v>23</v>
-      </c>
-      <c r="C58" t="s">
-        <v>55</v>
-      </c>
-      <c r="D58">
-        <v>2</v>
-      </c>
-      <c r="E58" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="F58" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G58">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="H58" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -2096,16 +2120,25 @@
         <v>2</v>
       </c>
       <c r="B59" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="C59" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59" t="s">
+        <v>13</v>
       </c>
       <c r="F59" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G59">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H59" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -2113,25 +2146,25 @@
         <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C60" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="D60">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E60" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="F60" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="G60">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="H60" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -2139,25 +2172,25 @@
         <v>2</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="C61" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D61">
         <v>1</v>
       </c>
       <c r="E61" t="s">
+        <v>17</v>
+      </c>
+      <c r="F61" t="s">
+        <v>51</v>
+      </c>
+      <c r="G61">
         <v>31</v>
       </c>
-      <c r="F61" t="s">
-        <v>32</v>
-      </c>
-      <c r="G61">
-        <v>41</v>
-      </c>
       <c r="H61" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -2165,25 +2198,25 @@
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C62" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E62" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F62" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="G62">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H62" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -2191,25 +2224,25 @@
         <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C63" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E63" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F63" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="G63">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="H63" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -2217,51 +2250,51 @@
         <v>2</v>
       </c>
       <c r="B64" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C64" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E64" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F64" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="G64">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="H64" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C65" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="D65">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E65" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="F65" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="G65">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H65" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -2269,25 +2302,25 @@
         <v>3</v>
       </c>
       <c r="B66" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C66" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="D66">
         <v>3</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="F66" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="G66">
         <v>13</v>
       </c>
       <c r="H66" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -2295,25 +2328,25 @@
         <v>3</v>
       </c>
       <c r="B67" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C67" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E67" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="F67" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="G67">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="H67" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -2321,25 +2354,25 @@
         <v>3</v>
       </c>
       <c r="B68" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C68" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="D68">
         <v>4</v>
       </c>
       <c r="E68" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F68" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="G68">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="H68" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -2347,25 +2380,25 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C69" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E69" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="F69" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="G69">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="H69" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -2373,25 +2406,25 @@
         <v>3</v>
       </c>
       <c r="B70" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C70" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="D70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E70" t="s">
         <v>28</v>
       </c>
       <c r="F70" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="G70">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H70" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -2401,23 +2434,14 @@
       <c r="B71" t="s">
         <v>8</v>
       </c>
-      <c r="C71" t="s">
-        <v>62</v>
-      </c>
-      <c r="D71">
-        <v>4</v>
-      </c>
-      <c r="E71" t="s">
-        <v>15</v>
-      </c>
       <c r="F71" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="G71">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="H71" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -2425,25 +2449,25 @@
         <v>3</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C72" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E72" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F72" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="G72">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="H72" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -2451,25 +2475,25 @@
         <v>3</v>
       </c>
       <c r="B73" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C73" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D73">
         <v>1</v>
       </c>
       <c r="E73" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F73" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G73">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H73" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -2477,25 +2501,25 @@
         <v>3</v>
       </c>
       <c r="B74" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C74" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E74" t="s">
         <v>25</v>
       </c>
       <c r="F74" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="G74">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H74" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -2503,25 +2527,25 @@
         <v>3</v>
       </c>
       <c r="B75" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C75" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D75">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F75" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="G75">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="H75" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -2529,25 +2553,25 @@
         <v>3</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C76" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E76" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F76" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="G76">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="H76" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -2555,25 +2579,25 @@
         <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C77" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D77">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E77" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F77" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G77">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="H77" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -2583,23 +2607,14 @@
       <c r="B78" t="s">
         <v>8</v>
       </c>
-      <c r="C78" t="s">
-        <v>56</v>
-      </c>
-      <c r="D78">
-        <v>0</v>
-      </c>
-      <c r="E78" t="s">
-        <v>25</v>
-      </c>
       <c r="F78" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="G78">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="H78" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -2607,25 +2622,25 @@
         <v>3</v>
       </c>
       <c r="B79" t="s">
+        <v>41</v>
+      </c>
+      <c r="C79" t="s">
+        <v>50</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79" t="s">
         <v>17</v>
       </c>
-      <c r="C79" t="s">
-        <v>60</v>
-      </c>
-      <c r="D79">
-        <v>4</v>
-      </c>
-      <c r="E79" t="s">
-        <v>15</v>
-      </c>
       <c r="F79" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G79">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H79" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -2633,25 +2648,25 @@
         <v>3</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="D80">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="F80" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="G80">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H80" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -2659,25 +2674,25 @@
         <v>3</v>
       </c>
       <c r="B81" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C81" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="D81">
         <v>2</v>
       </c>
       <c r="E81" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F81" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="G81">
         <v>22</v>
       </c>
       <c r="H81" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -2685,25 +2700,25 @@
         <v>3</v>
       </c>
       <c r="B82" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C82" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D82">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E82" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F82" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="G82">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="H82" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -2711,16 +2726,25 @@
         <v>3</v>
       </c>
       <c r="B83" t="s">
+        <v>15</v>
+      </c>
+      <c r="C83" t="s">
+        <v>80</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83" t="s">
+        <v>28</v>
+      </c>
+      <c r="F83" t="s">
+        <v>9</v>
+      </c>
+      <c r="G83">
         <v>20</v>
       </c>
-      <c r="F83" t="s">
-        <v>26</v>
-      </c>
-      <c r="G83">
-        <v>100</v>
-      </c>
       <c r="H83" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -2728,16 +2752,25 @@
         <v>3</v>
       </c>
       <c r="B84" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="C84" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84" t="s">
+        <v>13</v>
       </c>
       <c r="F84" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="G84">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H84" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -2745,51 +2778,51 @@
         <v>3</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C85" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E85" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F85" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G85">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="H85" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B86" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C86" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D86">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E86" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F86" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="G86">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="H86" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -2797,25 +2830,25 @@
         <v>4</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="D87">
         <v>3</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="F87" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="G87">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="H87" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -2823,25 +2856,25 @@
         <v>4</v>
       </c>
       <c r="B88" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C88" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="D88">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E88" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F88" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="G88">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H88" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -2849,25 +2882,25 @@
         <v>4</v>
       </c>
       <c r="B89" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C89" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E89" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="F89" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="G89">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="H89" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -2875,25 +2908,25 @@
         <v>4</v>
       </c>
       <c r="B90" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C90" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="D90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E90" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="F90" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="G90">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="H90" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -2901,25 +2934,16 @@
         <v>4</v>
       </c>
       <c r="B91" t="s">
-        <v>35</v>
-      </c>
-      <c r="C91" t="s">
-        <v>64</v>
-      </c>
-      <c r="D91">
-        <v>1</v>
-      </c>
-      <c r="E91" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="F91" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="G91">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="H91" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -2927,25 +2951,25 @@
         <v>4</v>
       </c>
       <c r="B92" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C92" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E92" t="s">
         <v>25</v>
       </c>
       <c r="F92" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="G92">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H92" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -2953,25 +2977,25 @@
         <v>4</v>
       </c>
       <c r="B93" t="s">
+        <v>19</v>
+      </c>
+      <c r="C93" t="s">
+        <v>52</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93" t="s">
         <v>17</v>
       </c>
-      <c r="C93" t="s">
-        <v>42</v>
-      </c>
-      <c r="D93">
-        <v>1</v>
-      </c>
-      <c r="E93" t="s">
-        <v>31</v>
-      </c>
       <c r="F93" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G93">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="H93" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -2979,25 +3003,25 @@
         <v>4</v>
       </c>
       <c r="B94" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C94" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="F94" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G94">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="H94" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -3005,25 +3029,25 @@
         <v>4</v>
       </c>
       <c r="B95" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C95" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="D95">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E95" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F95" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G95">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="H95" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -3031,25 +3055,25 @@
         <v>4</v>
       </c>
       <c r="B96" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C96" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E96" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F96" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="G96">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="H96" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -3057,25 +3081,25 @@
         <v>4</v>
       </c>
       <c r="B97" t="s">
+        <v>15</v>
+      </c>
+      <c r="C97" t="s">
+        <v>73</v>
+      </c>
+      <c r="D97">
+        <v>3</v>
+      </c>
+      <c r="E97" t="s">
+        <v>39</v>
+      </c>
+      <c r="F97" t="s">
+        <v>74</v>
+      </c>
+      <c r="G97">
         <v>23</v>
       </c>
-      <c r="C97" t="s">
-        <v>24</v>
-      </c>
-      <c r="D97">
-        <v>0</v>
-      </c>
-      <c r="E97" t="s">
-        <v>25</v>
-      </c>
-      <c r="F97" t="s">
-        <v>26</v>
-      </c>
-      <c r="G97">
-        <v>20</v>
-      </c>
       <c r="H97" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -3083,25 +3107,25 @@
         <v>4</v>
       </c>
       <c r="B98" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C98" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="D98">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F98" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="G98">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="H98" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -3109,25 +3133,25 @@
         <v>4</v>
       </c>
       <c r="B99" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C99" t="s">
         <v>64</v>
       </c>
       <c r="D99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E99" t="s">
+        <v>28</v>
+      </c>
+      <c r="F99" t="s">
         <v>65</v>
       </c>
-      <c r="F99" t="s">
-        <v>66</v>
-      </c>
       <c r="G99">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H99" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -3135,25 +3159,25 @@
         <v>4</v>
       </c>
       <c r="B100" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C100" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="D100">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E100" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="F100" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="G100">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="H100" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -3161,25 +3185,25 @@
         <v>4</v>
       </c>
       <c r="B101" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C101" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D101">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F101" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="G101">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="H101" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -3190,22 +3214,22 @@
         <v>23</v>
       </c>
       <c r="C102" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="D102">
         <v>2</v>
       </c>
       <c r="E102" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F102" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="G102">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="H102" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -3213,25 +3237,25 @@
         <v>4</v>
       </c>
       <c r="B103" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C103" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D103">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E103" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F103" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="G103">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H103" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -3239,16 +3263,25 @@
         <v>4</v>
       </c>
       <c r="B104" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="C104" t="s">
+        <v>46</v>
+      </c>
+      <c r="D104">
+        <v>4</v>
+      </c>
+      <c r="E104" t="s">
+        <v>21</v>
       </c>
       <c r="F104" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="G104">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="H104" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -3256,25 +3289,25 @@
         <v>4</v>
       </c>
       <c r="B105" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C105" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="D105">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E105" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F105" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="G105">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H105" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -3282,42 +3315,42 @@
         <v>4</v>
       </c>
       <c r="B106" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F106" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="G106">
         <v>100</v>
       </c>
       <c r="H106" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B107" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C107" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="D107">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E107" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="F107" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="G107">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H107" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -3325,25 +3358,16 @@
         <v>5</v>
       </c>
       <c r="B108" t="s">
-        <v>13</v>
-      </c>
-      <c r="C108" t="s">
-        <v>69</v>
-      </c>
-      <c r="D108">
-        <v>2</v>
-      </c>
-      <c r="E108" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="F108" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="G108">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="H108" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -3351,25 +3375,25 @@
         <v>5</v>
       </c>
       <c r="B109" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C109" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="D109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E109" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F109" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="G109">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H109" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -3377,25 +3401,25 @@
         <v>5</v>
       </c>
       <c r="B110" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C110" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D110">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F110" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G110">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="H110" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -3403,25 +3427,25 @@
         <v>5</v>
       </c>
       <c r="B111" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C111" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E111" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="F111" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="G111">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="H111" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -3429,16 +3453,25 @@
         <v>5</v>
       </c>
       <c r="B112" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="C112" t="s">
+        <v>73</v>
+      </c>
+      <c r="D112">
+        <v>3</v>
+      </c>
+      <c r="E112" t="s">
+        <v>39</v>
       </c>
       <c r="F112" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="G112">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="H112" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -3446,25 +3479,25 @@
         <v>5</v>
       </c>
       <c r="B113" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C113" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="D113">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E113" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F113" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="G113">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H113" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -3472,25 +3505,16 @@
         <v>5</v>
       </c>
       <c r="B114" t="s">
-        <v>35</v>
-      </c>
-      <c r="C114" t="s">
-        <v>36</v>
-      </c>
-      <c r="D114">
-        <v>0</v>
-      </c>
-      <c r="E114" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F114" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G114">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H114" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -3498,16 +3522,25 @@
         <v>5</v>
       </c>
       <c r="B115" t="s">
-        <v>20</v>
+        <v>41</v>
+      </c>
+      <c r="C115" t="s">
+        <v>50</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="E115" t="s">
+        <v>17</v>
       </c>
       <c r="F115" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G115">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="H115" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -3515,25 +3548,25 @@
         <v>5</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C116" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D116">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E116" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F116" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G116">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H116" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -3541,16 +3574,25 @@
         <v>5</v>
       </c>
       <c r="B117" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="C117" t="s">
+        <v>27</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117" t="s">
+        <v>28</v>
       </c>
       <c r="F117" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="G117">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H117" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -3558,25 +3600,25 @@
         <v>5</v>
       </c>
       <c r="B118" t="s">
+        <v>19</v>
+      </c>
+      <c r="C118" t="s">
+        <v>52</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+      <c r="E118" t="s">
         <v>17</v>
       </c>
-      <c r="C118" t="s">
-        <v>67</v>
-      </c>
-      <c r="D118">
-        <v>0</v>
-      </c>
-      <c r="E118" t="s">
-        <v>25</v>
-      </c>
       <c r="F118" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="G118">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="H118" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -3584,25 +3626,25 @@
         <v>5</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C119" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="D119">
         <v>4</v>
       </c>
       <c r="E119" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F119" t="s">
         <v>63</v>
       </c>
       <c r="G119">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="H119" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -3610,25 +3652,25 @@
         <v>5</v>
       </c>
       <c r="B120" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C120" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="D120">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E120" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F120" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="G120">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="H120" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -3636,25 +3678,25 @@
         <v>5</v>
       </c>
       <c r="B121" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C121" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="D121">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E121" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F121" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="G121">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H121" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -3662,25 +3704,25 @@
         <v>5</v>
       </c>
       <c r="B122" t="s">
+        <v>23</v>
+      </c>
+      <c r="C122" t="s">
+        <v>68</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+      <c r="E122" t="s">
         <v>17</v>
       </c>
-      <c r="C122" t="s">
-        <v>58</v>
-      </c>
-      <c r="D122">
-        <v>2</v>
-      </c>
-      <c r="E122" t="s">
-        <v>28</v>
-      </c>
       <c r="F122" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G122">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H122" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -3688,10 +3730,10 @@
         <v>5</v>
       </c>
       <c r="B123" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C123" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D123">
         <v>1</v>
@@ -3700,13 +3742,13 @@
         <v>31</v>
       </c>
       <c r="F123" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G123">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="H123" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -3714,25 +3756,25 @@
         <v>5</v>
       </c>
       <c r="B124" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C124" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D124">
         <v>3</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="F124" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="G124">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="H124" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
@@ -3740,25 +3782,25 @@
         <v>5</v>
       </c>
       <c r="B125" t="s">
+        <v>23</v>
+      </c>
+      <c r="C125" t="s">
+        <v>68</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+      <c r="E125" t="s">
         <v>17</v>
       </c>
-      <c r="C125" t="s">
-        <v>67</v>
-      </c>
-      <c r="D125">
-        <v>0</v>
-      </c>
-      <c r="E125" t="s">
-        <v>25</v>
-      </c>
       <c r="F125" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="G125">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H125" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
@@ -3766,25 +3808,25 @@
         <v>5</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C126" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="D126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E126" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="F126" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="G126">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H126" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
@@ -3792,25 +3834,16 @@
         <v>5</v>
       </c>
       <c r="B127" t="s">
-        <v>35</v>
-      </c>
-      <c r="C127" t="s">
-        <v>64</v>
-      </c>
-      <c r="D127">
-        <v>1</v>
-      </c>
-      <c r="E127" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="F127" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="G127">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="H127" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -3818,51 +3851,51 @@
         <v>5</v>
       </c>
       <c r="B128" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C128" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="D128">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E128" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F128" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="G128">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="H128" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B129" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C129" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D129">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E129" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F129" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="G129">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="H129" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
@@ -3870,16 +3903,25 @@
         <v>6</v>
       </c>
       <c r="B130" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="C130" t="s">
+        <v>73</v>
+      </c>
+      <c r="D130">
+        <v>3</v>
+      </c>
+      <c r="E130" t="s">
+        <v>39</v>
       </c>
       <c r="F130" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="G130">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="H130" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
@@ -3887,25 +3929,25 @@
         <v>6</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C131" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="D131">
         <v>0</v>
       </c>
       <c r="E131" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F131" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="G131">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H131" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -3913,16 +3955,25 @@
         <v>6</v>
       </c>
       <c r="B132" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="C132" t="s">
+        <v>77</v>
+      </c>
+      <c r="D132">
+        <v>2</v>
+      </c>
+      <c r="E132" t="s">
+        <v>78</v>
       </c>
       <c r="F132" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G132">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="H132" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
@@ -3930,25 +3981,25 @@
         <v>6</v>
       </c>
       <c r="B133" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C133" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D133">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E133" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F133" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G133">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="H133" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
@@ -3956,16 +4007,25 @@
         <v>6</v>
       </c>
       <c r="B134" t="s">
+        <v>15</v>
+      </c>
+      <c r="C134" t="s">
+        <v>80</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134" t="s">
+        <v>28</v>
+      </c>
+      <c r="F134" t="s">
+        <v>81</v>
+      </c>
+      <c r="G134">
         <v>20</v>
       </c>
-      <c r="F134" t="s">
-        <v>50</v>
-      </c>
-      <c r="G134">
-        <v>100</v>
-      </c>
       <c r="H134" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
@@ -3973,25 +4033,25 @@
         <v>6</v>
       </c>
       <c r="B135" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C135" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D135">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E135" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F135" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="G135">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="H135" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
@@ -3999,25 +4059,25 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C136" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="D136">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E136" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F136" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G136">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="H136" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -4027,23 +4087,14 @@
       <c r="B137" t="s">
         <v>8</v>
       </c>
-      <c r="C137" t="s">
-        <v>56</v>
-      </c>
-      <c r="D137">
-        <v>0</v>
-      </c>
-      <c r="E137" t="s">
-        <v>25</v>
-      </c>
       <c r="F137" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="G137">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="H137" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
@@ -4051,25 +4102,16 @@
         <v>6</v>
       </c>
       <c r="B138" t="s">
-        <v>23</v>
-      </c>
-      <c r="C138" t="s">
-        <v>71</v>
-      </c>
-      <c r="D138">
-        <v>3</v>
-      </c>
-      <c r="E138" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F138" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="G138">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="H138" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
@@ -4077,25 +4119,25 @@
         <v>6</v>
       </c>
       <c r="B139" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C139" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="D139">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E139" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F139" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="G139">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="H139" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
@@ -4103,25 +4145,25 @@
         <v>6</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="C140" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D140">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E140" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F140" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="G140">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H140" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
@@ -4129,25 +4171,25 @@
         <v>6</v>
       </c>
       <c r="B141" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C141" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D141">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E141" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F141" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="G141">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H141" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
@@ -4155,25 +4197,25 @@
         <v>6</v>
       </c>
       <c r="B142" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C142" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="D142">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E142" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F142" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="G142">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H142" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -4181,25 +4223,16 @@
         <v>6</v>
       </c>
       <c r="B143" t="s">
-        <v>13</v>
-      </c>
-      <c r="C143" t="s">
-        <v>46</v>
-      </c>
-      <c r="D143">
-        <v>3</v>
-      </c>
-      <c r="E143" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F143" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G143">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="H143" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -4207,25 +4240,25 @@
         <v>6</v>
       </c>
       <c r="B144" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C144" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D144">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F144" t="s">
         <v>72</v>
       </c>
       <c r="G144">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H144" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
@@ -4233,25 +4266,25 @@
         <v>6</v>
       </c>
       <c r="B145" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C145" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="D145">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E145" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F145" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="G145">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="H145" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
@@ -4259,25 +4292,25 @@
         <v>6</v>
       </c>
       <c r="B146" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C146" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="D146">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F146" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="G146">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="H146" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
@@ -4285,25 +4318,25 @@
         <v>6</v>
       </c>
       <c r="B147" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C147" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D147">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E147" t="s">
         <v>28</v>
       </c>
       <c r="F147" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G147">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H147" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
@@ -4311,25 +4344,25 @@
         <v>6</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C148" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="D148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E148" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F148" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="G148">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H148" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
@@ -4337,25 +4370,16 @@
         <v>6</v>
       </c>
       <c r="B149" t="s">
-        <v>13</v>
-      </c>
-      <c r="C149" t="s">
-        <v>53</v>
-      </c>
-      <c r="D149">
-        <v>0</v>
-      </c>
-      <c r="E149" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="F149" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="G149">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="H149" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -4363,25 +4387,16 @@
         <v>6</v>
       </c>
       <c r="B150" t="s">
-        <v>13</v>
-      </c>
-      <c r="C150" t="s">
-        <v>46</v>
-      </c>
-      <c r="D150">
-        <v>3</v>
-      </c>
-      <c r="E150" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F150" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="G150">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="H150" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
@@ -4389,51 +4404,51 @@
         <v>6</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C151" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="D151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E151" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F151" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="G151">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H151" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="D152">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F152" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="G152">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="H152" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
@@ -4441,25 +4456,25 @@
         <v>7</v>
       </c>
       <c r="B153" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C153" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="D153">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E153" t="s">
         <v>25</v>
       </c>
       <c r="F153" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="G153">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H153" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
@@ -4467,16 +4482,25 @@
         <v>7</v>
       </c>
       <c r="B154" t="s">
-        <v>20</v>
+        <v>41</v>
+      </c>
+      <c r="C154" t="s">
+        <v>42</v>
+      </c>
+      <c r="D154">
+        <v>3</v>
+      </c>
+      <c r="E154" t="s">
+        <v>39</v>
       </c>
       <c r="F154" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="G154">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H154" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
@@ -4484,25 +4508,25 @@
         <v>7</v>
       </c>
       <c r="B155" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C155" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D155">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E155" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F155" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G155">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H155" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
@@ -4510,25 +4534,25 @@
         <v>7</v>
       </c>
       <c r="B156" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C156" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="D156">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E156" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F156" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="G156">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="H156" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
@@ -4536,25 +4560,25 @@
         <v>7</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C157" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D157">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E157" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F157" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="G157">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="H157" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
@@ -4562,25 +4586,25 @@
         <v>7</v>
       </c>
       <c r="B158" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C158" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="D158">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E158" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F158" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="G158">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H158" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
@@ -4588,25 +4612,25 @@
         <v>7</v>
       </c>
       <c r="B159" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C159" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D159">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E159" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F159" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G159">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="H159" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -4614,25 +4638,25 @@
         <v>7</v>
       </c>
       <c r="B160" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C160" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="D160">
         <v>2</v>
       </c>
       <c r="E160" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="F160" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="G160">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="H160" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
@@ -4640,25 +4664,25 @@
         <v>7</v>
       </c>
       <c r="B161" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C161" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D161">
         <v>3</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="F161" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G161">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H161" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
@@ -4666,16 +4690,25 @@
         <v>7</v>
       </c>
       <c r="B162" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="C162" t="s">
+        <v>52</v>
+      </c>
+      <c r="D162">
+        <v>1</v>
+      </c>
+      <c r="E162" t="s">
+        <v>17</v>
       </c>
       <c r="F162" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G162">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="H162" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
@@ -4683,25 +4716,25 @@
         <v>7</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D163">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F163" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="G163">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="H163" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
@@ -4709,25 +4742,16 @@
         <v>7</v>
       </c>
       <c r="B164" t="s">
-        <v>17</v>
-      </c>
-      <c r="C164" t="s">
-        <v>58</v>
-      </c>
-      <c r="D164">
-        <v>2</v>
-      </c>
-      <c r="E164" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="F164" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="G164">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="H164" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
@@ -4735,25 +4759,25 @@
         <v>7</v>
       </c>
       <c r="B165" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C165" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D165">
         <v>0</v>
       </c>
       <c r="E165" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="F165" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="G165">
         <v>50</v>
       </c>
       <c r="H165" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
@@ -4761,25 +4785,25 @@
         <v>7</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C166" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="D166">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E166" t="s">
         <v>28</v>
       </c>
       <c r="F166" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="G166">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H166" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
@@ -4787,25 +4811,16 @@
         <v>7</v>
       </c>
       <c r="B167" t="s">
-        <v>13</v>
-      </c>
-      <c r="C167" t="s">
-        <v>69</v>
-      </c>
-      <c r="D167">
-        <v>2</v>
-      </c>
-      <c r="E167" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="F167" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="G167">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="H167" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
@@ -4813,25 +4828,25 @@
         <v>7</v>
       </c>
       <c r="B168" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C168" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="D168">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E168" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F168" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="G168">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H168" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
@@ -4839,25 +4854,25 @@
         <v>7</v>
       </c>
       <c r="B169" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C169" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="D169">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E169" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="F169" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="G169">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="H169" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
@@ -4865,25 +4880,25 @@
         <v>7</v>
       </c>
       <c r="B170" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C170" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D170">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E170" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F170" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G170">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H170" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
@@ -4891,25 +4906,25 @@
         <v>7</v>
       </c>
       <c r="B171" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C171" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D171">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E171" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F171" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="G171">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H171" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
@@ -4917,42 +4932,51 @@
         <v>7</v>
       </c>
       <c r="B172" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C172" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D172">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E172" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F172" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="G172">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H172" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B173" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="C173" t="s">
+        <v>16</v>
+      </c>
+      <c r="D173">
+        <v>1</v>
+      </c>
+      <c r="E173" t="s">
+        <v>17</v>
       </c>
       <c r="F173" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="G173">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="H173" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
@@ -4960,25 +4984,25 @@
         <v>8</v>
       </c>
       <c r="B174" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C174" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D174">
         <v>1</v>
       </c>
       <c r="E174" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="F174" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="G174">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="H174" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
@@ -4986,25 +5010,25 @@
         <v>8</v>
       </c>
       <c r="B175" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C175" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="D175">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E175" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F175" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G175">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="H175" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
@@ -5012,25 +5036,25 @@
         <v>8</v>
       </c>
       <c r="B176" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C176" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D176">
         <v>4</v>
       </c>
       <c r="E176" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F176" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="G176">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="H176" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
@@ -5041,22 +5065,22 @@
         <v>23</v>
       </c>
       <c r="C177" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D177">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E177" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="F177" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="G177">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H177" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
@@ -5064,25 +5088,25 @@
         <v>8</v>
       </c>
       <c r="B178" t="s">
+        <v>11</v>
+      </c>
+      <c r="C178" t="s">
+        <v>12</v>
+      </c>
+      <c r="D178">
+        <v>0</v>
+      </c>
+      <c r="E178" t="s">
         <v>13</v>
       </c>
-      <c r="C178" t="s">
-        <v>69</v>
-      </c>
-      <c r="D178">
-        <v>2</v>
-      </c>
-      <c r="E178" t="s">
-        <v>28</v>
-      </c>
       <c r="F178" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="G178">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="H178" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
@@ -5090,25 +5114,25 @@
         <v>8</v>
       </c>
       <c r="B179" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C179" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E179" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F179" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G179">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="H179" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
@@ -5116,16 +5140,25 @@
         <v>8</v>
       </c>
       <c r="B180" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="C180" t="s">
+        <v>27</v>
+      </c>
+      <c r="D180">
+        <v>0</v>
+      </c>
+      <c r="E180" t="s">
+        <v>28</v>
       </c>
       <c r="F180" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="G180">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H180" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
@@ -5133,25 +5166,25 @@
         <v>8</v>
       </c>
       <c r="B181" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C181" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="D181">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E181" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F181" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="G181">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="H181" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
@@ -5159,25 +5192,16 @@
         <v>8</v>
       </c>
       <c r="B182" t="s">
-        <v>13</v>
-      </c>
-      <c r="C182" t="s">
-        <v>46</v>
-      </c>
-      <c r="D182">
-        <v>3</v>
-      </c>
-      <c r="E182" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F182" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="G182">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="H182" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
@@ -5185,25 +5209,25 @@
         <v>8</v>
       </c>
       <c r="B183" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C183" t="s">
+        <v>44</v>
+      </c>
+      <c r="D183">
+        <v>3</v>
+      </c>
+      <c r="E183" t="s">
         <v>39</v>
       </c>
-      <c r="D183">
-        <v>2</v>
-      </c>
-      <c r="E183" t="s">
-        <v>40</v>
-      </c>
       <c r="F183" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G183">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="H183" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
@@ -5211,16 +5235,25 @@
         <v>8</v>
       </c>
       <c r="B184" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="C184" t="s">
+        <v>52</v>
+      </c>
+      <c r="D184">
+        <v>1</v>
+      </c>
+      <c r="E184" t="s">
+        <v>17</v>
       </c>
       <c r="F184" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="G184">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="H184" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
@@ -5228,25 +5261,25 @@
         <v>8</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="C185" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="D185">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E185" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="F185" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="G185">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H185" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
@@ -5254,25 +5287,25 @@
         <v>8</v>
       </c>
       <c r="B186" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C186" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="D186">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E186" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F186" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="G186">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="H186" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
@@ -5280,25 +5313,25 @@
         <v>8</v>
       </c>
       <c r="B187" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C187" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D187">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E187" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F187" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="G187">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H187" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
@@ -5306,25 +5339,25 @@
         <v>8</v>
       </c>
       <c r="B188" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C188" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D188">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E188" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="F188" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="G188">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="H188" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
@@ -5332,25 +5365,25 @@
         <v>8</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C189" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="D189">
         <v>0</v>
       </c>
       <c r="E189" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F189" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G189">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="H189" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
@@ -5358,25 +5391,25 @@
         <v>8</v>
       </c>
       <c r="B190" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C190" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D190">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E190" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F190" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="G190">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="H190" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
@@ -5384,25 +5417,25 @@
         <v>8</v>
       </c>
       <c r="B191" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C191" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="D191">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E191" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="F191" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="G191">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="H191" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
@@ -5410,25 +5443,25 @@
         <v>8</v>
       </c>
       <c r="B192" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C192" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="D192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E192" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F192" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="G192">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H192" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
@@ -5439,22 +5472,22 @@
         <v>23</v>
       </c>
       <c r="C193" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D193">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E193" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F193" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="G193">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H193" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
@@ -5462,25 +5495,16 @@
         <v>8</v>
       </c>
       <c r="B194" t="s">
-        <v>13</v>
-      </c>
-      <c r="C194" t="s">
-        <v>51</v>
-      </c>
-      <c r="D194">
-        <v>1</v>
-      </c>
-      <c r="E194" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="F194" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="G194">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="H194" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
@@ -5488,10 +5512,10 @@
         <v>9</v>
       </c>
       <c r="B195" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C195" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="D195">
         <v>1</v>
@@ -5500,13 +5524,13 @@
         <v>31</v>
       </c>
       <c r="F195" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="G195">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="H195" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
@@ -5517,22 +5541,22 @@
         <v>23</v>
       </c>
       <c r="C196" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="D196">
         <v>1</v>
       </c>
       <c r="E196" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F196" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="G196">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="H196" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
@@ -5540,25 +5564,25 @@
         <v>9</v>
       </c>
       <c r="B197" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C197" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="D197">
         <v>2</v>
       </c>
       <c r="E197" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="F197" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="G197">
         <v>52</v>
       </c>
       <c r="H197" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
@@ -5566,25 +5590,16 @@
         <v>9</v>
       </c>
       <c r="B198" t="s">
-        <v>13</v>
-      </c>
-      <c r="C198" t="s">
-        <v>69</v>
-      </c>
-      <c r="D198">
-        <v>2</v>
-      </c>
-      <c r="E198" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="F198" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="G198">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="H198" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
@@ -5592,25 +5607,25 @@
         <v>9</v>
       </c>
       <c r="B199" t="s">
+        <v>23</v>
+      </c>
+      <c r="C199" t="s">
+        <v>68</v>
+      </c>
+      <c r="D199">
+        <v>1</v>
+      </c>
+      <c r="E199" t="s">
         <v>17</v>
       </c>
-      <c r="C199" t="s">
-        <v>42</v>
-      </c>
-      <c r="D199">
-        <v>1</v>
-      </c>
-      <c r="E199" t="s">
-        <v>31</v>
-      </c>
       <c r="F199" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="G199">
         <v>11</v>
       </c>
       <c r="H199" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
@@ -5618,25 +5633,25 @@
         <v>9</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C200" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="D200">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E200" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="F200" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="G200">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="H200" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
@@ -5644,25 +5659,16 @@
         <v>9</v>
       </c>
       <c r="B201" t="s">
-        <v>23</v>
-      </c>
-      <c r="C201" t="s">
-        <v>33</v>
-      </c>
-      <c r="D201">
-        <v>4</v>
-      </c>
-      <c r="E201" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F201" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="G201">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="H201" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
@@ -5670,25 +5676,25 @@
         <v>9</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="C202" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D202">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E202" t="s">
         <v>25</v>
       </c>
       <c r="F202" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G202">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H202" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
@@ -5696,25 +5702,25 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C203" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="D203">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E203" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F203" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="G203">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="H203" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
@@ -5722,16 +5728,25 @@
         <v>9</v>
       </c>
       <c r="B204" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="C204" t="s">
+        <v>73</v>
+      </c>
+      <c r="D204">
+        <v>3</v>
+      </c>
+      <c r="E204" t="s">
+        <v>39</v>
       </c>
       <c r="F204" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="G204">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="H204" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
@@ -5739,25 +5754,25 @@
         <v>9</v>
       </c>
       <c r="B205" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C205" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E205" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F205" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G205">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H205" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
@@ -5765,25 +5780,25 @@
         <v>9</v>
       </c>
       <c r="B206" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C206" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="D206">
         <v>2</v>
       </c>
       <c r="E206" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F206" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="G206">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="H206" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
@@ -5791,25 +5806,25 @@
         <v>9</v>
       </c>
       <c r="B207" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C207" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="D207">
         <v>1</v>
       </c>
       <c r="E207" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="F207" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="G207">
         <v>51</v>
       </c>
       <c r="H207" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
@@ -5817,16 +5832,25 @@
         <v>9</v>
       </c>
       <c r="B208" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="C208" t="s">
+        <v>33</v>
+      </c>
+      <c r="D208">
+        <v>2</v>
+      </c>
+      <c r="E208" t="s">
+        <v>25</v>
       </c>
       <c r="F208" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="G208">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="H208" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
@@ -5834,16 +5858,25 @@
         <v>9</v>
       </c>
       <c r="B209" t="s">
-        <v>20</v>
+        <v>41</v>
+      </c>
+      <c r="C209" t="s">
+        <v>54</v>
+      </c>
+      <c r="D209">
+        <v>2</v>
+      </c>
+      <c r="E209" t="s">
+        <v>25</v>
       </c>
       <c r="F209" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="G209">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="H209" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
@@ -5851,25 +5884,25 @@
         <v>9</v>
       </c>
       <c r="B210" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C210" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D210">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E210" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="F210" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G210">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="H210" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
@@ -5877,25 +5910,25 @@
         <v>9</v>
       </c>
       <c r="B211" t="s">
+        <v>41</v>
+      </c>
+      <c r="C211" t="s">
+        <v>50</v>
+      </c>
+      <c r="D211">
+        <v>1</v>
+      </c>
+      <c r="E211" t="s">
         <v>17</v>
       </c>
-      <c r="C211" t="s">
-        <v>67</v>
-      </c>
-      <c r="D211">
-        <v>0</v>
-      </c>
-      <c r="E211" t="s">
-        <v>25</v>
-      </c>
       <c r="F211" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="G211">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="H211" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
@@ -5903,25 +5936,25 @@
         <v>9</v>
       </c>
       <c r="B212" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C212" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="D212">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E212" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="F212" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="G212">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H212" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
@@ -5929,25 +5962,25 @@
         <v>9</v>
       </c>
       <c r="B213" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C213" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="D213">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E213" t="s">
         <v>28</v>
       </c>
       <c r="F213" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="G213">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="H213" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
@@ -5955,25 +5988,16 @@
         <v>9</v>
       </c>
       <c r="B214" t="s">
-        <v>17</v>
-      </c>
-      <c r="C214" t="s">
-        <v>58</v>
-      </c>
-      <c r="D214">
-        <v>2</v>
-      </c>
-      <c r="E214" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="F214" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G214">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="H214" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
@@ -5981,25 +6005,25 @@
         <v>9</v>
       </c>
       <c r="B215" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C215" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D215">
         <v>1</v>
       </c>
       <c r="E215" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F215" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G215">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="H215" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
@@ -6007,25 +6031,25 @@
         <v>9</v>
       </c>
       <c r="B216" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C216" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D216">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E216" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F216" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="G216">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="H216" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
